--- a/Kichban/kichban_normal_smote_after12.xlsx
+++ b/Kichban/kichban_normal_smote_after12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Programs\NhatLe_AI\LinearRegression\NhatLe_v3_23\Kichban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level3\Kichban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D44EAF8-75BA-4F5D-A1A7-4D484C795EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A5C00-25E1-43DF-BB9A-6C20B6231FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Kịch bản</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Thuộc tính biết trong t ngày</t>
   </si>
   <si>
-    <t>Thuộc tính biết trong t+k ngày</t>
-  </si>
-  <si>
     <t>Thư mục xuất kết quả</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Max_Số khoảng cách ngày muốn dự đoán trong tương lai (k)</t>
   </si>
   <si>
-    <t>Chuẩn hóa dữ liệu</t>
-  </si>
-  <si>
     <t>Thuộc tính dự đoán ngày thứ t+k</t>
   </si>
   <si>
@@ -97,6 +91,15 @@
   </si>
   <si>
     <t>./Results/Test_normal_smote_after12/KienGiang_LeThuy_DongHoi_alarm3</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>Thuộc tính biết trong t+k giờ</t>
   </si>
 </sst>
 </file>
@@ -451,76 +454,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EDADF-31C6-4210-9471-F34EC19760B4}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="63.90625" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.26953125" customWidth="1"/>
-    <col min="8" max="8" width="71.54296875" customWidth="1"/>
-    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="8" max="8" width="71.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -529,36 +534,39 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>18</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M2">
-        <v>1.2</v>
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -567,36 +575,39 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M3">
-        <v>1.2</v>
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -605,36 +616,39 @@
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M4">
-        <v>2.2000000000000002</v>
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -643,36 +657,39 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M5">
-        <v>2.2000000000000002</v>
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -681,36 +698,39 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>2.7</v>
+        <v>100</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -719,22 +739,25 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
-        <v>2.7</v>
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Kichban/kichban_normal_smote_after12.xlsx
+++ b/Kichban/kichban_normal_smote_after12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level3\Kichban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A5C00-25E1-43DF-BB9A-6C20B6231FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0425F-6865-4C9A-8004-03C645BEF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EDADF-31C6-4210-9471-F34EC19760B4}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
         <v>1.2</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N2">
         <v>30</v>
@@ -590,7 +590,7 @@
         <v>1.2</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N3">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N4">
         <v>30</v>
@@ -672,7 +672,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N5">
         <v>30</v>
@@ -713,7 +713,7 @@
         <v>2.7</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -754,7 +754,7 @@
         <v>2.7</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N7">
         <v>30</v>

--- a/Kichban/kichban_normal_smote_after12.xlsx
+++ b/Kichban/kichban_normal_smote_after12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level3\Kichban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\water_level4\Kichban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0425F-6865-4C9A-8004-03C645BEF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708066BE-1316-48E7-B7C0-516C3CAB9AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6B37B98-9736-49F4-B4E0-4DE82827A1BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Kịch bản</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Thuộc tính dự đoán ngày thứ t+k</t>
   </si>
   <si>
-    <t>WL_KienGiang, RF_KienGiang, WL_LeThuy, RF_LeThuy</t>
-  </si>
-  <si>
     <t xml:space="preserve"> WL_LeThuy</t>
   </si>
   <si>
@@ -75,24 +72,6 @@
     <t>WL_KienGiang, RF_KienGiang, WL_LeThuy, RF_LeThuy, WL_DongHoi, RF_DongHoi</t>
   </si>
   <si>
-    <t>./Results/Test_normal_smote_after12/KienGiang_LeThuy_alarm1</t>
-  </si>
-  <si>
-    <t>./Results/Test_normal_smote_after12/KienGiang_LeThuy_DongHoi_alarm1</t>
-  </si>
-  <si>
-    <t>./Results/Test_normal_smote_after12/KienGiang_LeThuy_alarm2</t>
-  </si>
-  <si>
-    <t>./Results/Test_normal_smote_after12/KienGiang_LeThuy_DongHoi_alarm2</t>
-  </si>
-  <si>
-    <t>./Results/Test_normal_smote_after12/KienGiang_LeThuy_alarm3</t>
-  </si>
-  <si>
-    <t>./Results/Test_normal_smote_after12/KienGiang_LeThuy_DongHoi_alarm3</t>
-  </si>
-  <si>
     <t>epoch</t>
   </si>
   <si>
@@ -100,16 +79,39 @@
   </si>
   <si>
     <t>Thuộc tính biết trong t+k giờ</t>
+  </si>
+  <si>
+    <t>reference_col</t>
+  </si>
+  <si>
+    <t>./Results/Test_after12/SMOTE_after12</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,11 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,13 +460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EDADF-31C6-4210-9471-F34EC19760B4}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="63.88671875" customWidth="1"/>
@@ -470,7 +476,7 @@
     <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="129.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -499,33 +505,36 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -534,10 +543,10 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
       </c>
       <c r="J2">
         <v>18</v>
@@ -554,210 +563,8 @@
       <c r="N2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1.2</v>
-      </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="N3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-      <c r="N5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="O2" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2.7</v>
-      </c>
-      <c r="M6">
-        <v>1000</v>
-      </c>
-      <c r="N6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2.7</v>
-      </c>
-      <c r="M7">
-        <v>1000</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
